--- a/GPRO_QMS_Web/Report Template/BCao_DGia_Ngay.xlsx
+++ b/GPRO_QMS_Web/Report Template/BCao_DGia_Ngay.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>BÁO CÁO ĐÁNH GIÁ TRONG NGÀY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -41,6 +38,12 @@
   </si>
   <si>
     <t>Chất lượng phục vụ</t>
+  </si>
+  <si>
+    <t>Ý kiến khác</t>
+  </si>
+  <si>
+    <t>BÁO CÁO ĐÁNH GIÁ TỔNG HỢP</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +105,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,24 +161,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,7 +511,7 @@
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -502,72 +523,72 @@
     <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1"/>
+    <col min="8" max="8" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <f ca="1">TODAY()</f>
-        <v>43703</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="5" spans="2:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="2:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
